--- a/data/trans_dic/P1416-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1416-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.06312382844937672</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1038899222100283</v>
+        <v>0.1038899222100284</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.05203692610349302</v>
@@ -685,7 +685,7 @@
         <v>0.09417148491689015</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.05915000812441998</v>
+        <v>0.05915000812441997</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.05385855187943572</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03309250554699635</v>
+        <v>0.03347843564662042</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04547775421960461</v>
+        <v>0.04813674025954195</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03690739844187876</v>
+        <v>0.03851263500311067</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06990201028405697</v>
+        <v>0.06993314534093599</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02920453132953274</v>
+        <v>0.02838600732446019</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07709121958525648</v>
+        <v>0.07581740986891018</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06003208525905732</v>
+        <v>0.06305441934598474</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04149700555801242</v>
+        <v>0.03666065755052754</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03743413207899551</v>
+        <v>0.03579387346452702</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06817161168166999</v>
+        <v>0.06893390636267216</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05856987975131821</v>
+        <v>0.05672989540087425</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0604545323147913</v>
+        <v>0.05972774439558726</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09021087137430163</v>
+        <v>0.0876366116342714</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1057857862118426</v>
+        <v>0.1071101878644221</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1004454487821665</v>
+        <v>0.09870637730954553</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1536298287409708</v>
+        <v>0.1543845828513653</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08612607453132338</v>
+        <v>0.0858192593074605</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1509975727229419</v>
+        <v>0.1544249164168625</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1364949134260485</v>
+        <v>0.1373633187915559</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08914154275192193</v>
+        <v>0.08722049493037543</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07769254083408085</v>
+        <v>0.0746509769624749</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1199285419746704</v>
+        <v>0.1157078620048508</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1059661338606683</v>
+        <v>0.1044215571348066</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1101518017668469</v>
+        <v>0.1123774135349172</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04455661571827788</v>
+        <v>0.04531980101652072</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03952924328509275</v>
+        <v>0.03971746234750299</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02264737176136262</v>
+        <v>0.02233867080015023</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09187885472049077</v>
+        <v>0.09234208191947312</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08201009241282511</v>
+        <v>0.08062838040350644</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05065751624206382</v>
+        <v>0.05213813114381995</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05277892782712437</v>
+        <v>0.05126077483780251</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1035523881753589</v>
+        <v>0.1020195411749383</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0695060599218085</v>
+        <v>0.06843058517820814</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04940389027296083</v>
+        <v>0.04890505138160862</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04130175782629673</v>
+        <v>0.04148754591233794</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1036176161347432</v>
+        <v>0.1045316889136577</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09400194008475043</v>
+        <v>0.09340347859109474</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08890217019809879</v>
+        <v>0.08858679969974037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05925143305801719</v>
+        <v>0.05808509902577744</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1658116368735556</v>
+        <v>0.1712786833873907</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1364731431307607</v>
+        <v>0.1368692989149088</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0986324329162583</v>
+        <v>0.09798961908760793</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09799639252683028</v>
+        <v>0.09875942969539489</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1554192444714936</v>
+        <v>0.152186274157075</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1081976825213295</v>
+        <v>0.106403826162333</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08449927618768567</v>
+        <v>0.08481276881268277</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07119233235829292</v>
+        <v>0.07139328133094078</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1463216896684929</v>
+        <v>0.1505576201369643</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.04240563781679214</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09707438910482417</v>
+        <v>0.09707438910482415</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02283429307231392</v>
+        <v>0.02356541995855251</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02146444877110045</v>
+        <v>0.0210606819321054</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02588146058368526</v>
+        <v>0.02627803245988691</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06262090576061517</v>
+        <v>0.06273074230002958</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04829811926094811</v>
+        <v>0.04616793095503253</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0530361285755967</v>
+        <v>0.05287930289718998</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02530933500336421</v>
+        <v>0.02460125032962339</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07735584954921719</v>
+        <v>0.0775152842455662</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04175206731152809</v>
+        <v>0.04292058821793801</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04228816430800005</v>
+        <v>0.04260582599390987</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02953255070560966</v>
+        <v>0.02990021925425786</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0779839882823926</v>
+        <v>0.07663615568808976</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06980633291572798</v>
+        <v>0.07312888657848451</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06985676883597895</v>
+        <v>0.06899310627468196</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06902121723354737</v>
+        <v>0.07226034063440662</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1277411049745947</v>
+        <v>0.1324535547975865</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1019932240180822</v>
+        <v>0.1021220700421041</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1108646745880057</v>
+        <v>0.1138677061771287</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06575694568756929</v>
+        <v>0.06562914686328615</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.130361686204442</v>
+        <v>0.1321056351842612</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07763325422613003</v>
+        <v>0.0775630786450049</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07915109518541591</v>
+        <v>0.08159818240193853</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06122893445771935</v>
+        <v>0.06085380203344639</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1202290461524474</v>
+        <v>0.1201459499814204</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.05290997787568136</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.04796357797307717</v>
+        <v>0.04796357797307716</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1145604441873032</v>
@@ -1105,7 +1105,7 @@
         <v>0.0719336883543204</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05229832795066449</v>
+        <v>0.05229832795066448</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06012584394080269</v>
+        <v>0.05578838094810063</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02498474135826173</v>
+        <v>0.02741233982998249</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03197678725526953</v>
+        <v>0.03128498504827745</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02498676474865525</v>
+        <v>0.02319948047141937</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08568784300008965</v>
+        <v>0.08505176023503615</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05101358616969678</v>
+        <v>0.05173547599567249</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06261310343264107</v>
+        <v>0.0637037028884893</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03698138357742195</v>
+        <v>0.03792703842751394</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08058027261545764</v>
+        <v>0.08024601465537891</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0440273751905219</v>
+        <v>0.04479978844536164</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0529876955582548</v>
+        <v>0.05413811015177318</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03718708043640914</v>
+        <v>0.03752944496386814</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1191663862370585</v>
+        <v>0.1172171428081458</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07050912236425518</v>
+        <v>0.07109628873197897</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08244020530198021</v>
+        <v>0.07962957182005199</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09132090895417068</v>
+        <v>0.09763391296781364</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1532468918528026</v>
+        <v>0.1540727543204826</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1056061592769719</v>
+        <v>0.1091928020874758</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1209989560012593</v>
+        <v>0.122142189310933</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08000625568537524</v>
+        <v>0.0814805310832331</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1263147869141441</v>
+        <v>0.12569662083668</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07969506070117859</v>
+        <v>0.07835203995181424</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09320772105014884</v>
+        <v>0.09349133927397658</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07727903251323018</v>
+        <v>0.07551352901262098</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05269731987989156</v>
+        <v>0.05397409962352324</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0437962153173481</v>
+        <v>0.04670929793999255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03088131470587336</v>
+        <v>0.02926434542402443</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06628366090085927</v>
+        <v>0.06529177606431071</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.084794337269594</v>
+        <v>0.08575827396802525</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07915285499666905</v>
+        <v>0.07970733975513429</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05508503363315769</v>
+        <v>0.05438924364964698</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08677001414608707</v>
+        <v>0.08864007918657857</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0786257995047665</v>
+        <v>0.07954732675913101</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07264660754829964</v>
+        <v>0.07191333798442262</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04843831483305687</v>
+        <v>0.04681455279490619</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08333320757778824</v>
+        <v>0.08596135178896236</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1394299309001984</v>
+        <v>0.1335414845297565</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1185997217865801</v>
+        <v>0.118312266162133</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09925770629885097</v>
+        <v>0.09037787538223362</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1354161119541158</v>
+        <v>0.1382925715799979</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.179283250850253</v>
+        <v>0.1817643322819767</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.167909023677533</v>
+        <v>0.1684881480393896</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1319524750131816</v>
+        <v>0.1270423680671388</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1488753181147293</v>
+        <v>0.1491954285938464</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1448913764899288</v>
+        <v>0.1428899915131512</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1303533750297138</v>
+        <v>0.1307886348845941</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0980830185885137</v>
+        <v>0.09625383077990556</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1323847819705535</v>
+        <v>0.1320489914903442</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.07143360430965723</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1791076204314196</v>
+        <v>0.1791076204314197</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.07336826499901129</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03128795952638945</v>
+        <v>0.03061996349649635</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03346796876720955</v>
+        <v>0.03329703841643915</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03946122915562593</v>
+        <v>0.03670992740290489</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.104739710428206</v>
+        <v>0.1042616150657649</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06161235674198334</v>
+        <v>0.06010062288526975</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03428449901755085</v>
+        <v>0.03461812680211893</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04499701106511859</v>
+        <v>0.04425891343123347</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1460410279745636</v>
+        <v>0.1485769474802466</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05357208041097082</v>
+        <v>0.05361985955388512</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.03956017600444061</v>
+        <v>0.03927046351184998</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04865313880443019</v>
+        <v>0.04888944714149679</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1331545431788843</v>
+        <v>0.1323526758048312</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08629996210997876</v>
+        <v>0.09136401672025632</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09282088394129427</v>
+        <v>0.09571253161915619</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09587849388624758</v>
+        <v>0.09498896858870497</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.179156711289345</v>
+        <v>0.1812050273360353</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1277007981925752</v>
+        <v>0.1296044428227205</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08912608265577883</v>
+        <v>0.09689901365071608</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1133130377393229</v>
+        <v>0.1085296925556383</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2194272461193122</v>
+        <v>0.2197332049679615</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09732286721233517</v>
+        <v>0.1019219879940771</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.07969006179303979</v>
+        <v>0.08119654772662747</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.09265498848170806</v>
+        <v>0.0932573719126463</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1878721394685217</v>
+        <v>0.1878620953149391</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02899844565227645</v>
+        <v>0.02776512096724206</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02189360363742109</v>
+        <v>0.02166181890284413</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01772398557718069</v>
+        <v>0.01797413620000051</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0975545210004289</v>
+        <v>0.09425943822648401</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04722933916991032</v>
+        <v>0.04569542787657539</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04090655141565235</v>
+        <v>0.0402837053666341</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0589516430023026</v>
+        <v>0.05766584933853173</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1481378722864139</v>
+        <v>0.1500790797651584</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04140179699208806</v>
+        <v>0.04216967683716166</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03647155472607486</v>
+        <v>0.03528076094744312</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04161247043695043</v>
+        <v>0.04266082839870087</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1300779070376327</v>
+        <v>0.1306498233793888</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06279659895575512</v>
+        <v>0.06072765982277373</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05273856206360065</v>
+        <v>0.05280564468249118</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04734087376209385</v>
+        <v>0.04689791056153424</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1519241077084615</v>
+        <v>0.1484361365274615</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08469093375293517</v>
+        <v>0.08557120289684111</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07743493985296802</v>
+        <v>0.07851606779790787</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1010400854417053</v>
+        <v>0.09973376094578744</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1999202915933692</v>
+        <v>0.2008187463864127</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06770027667153011</v>
+        <v>0.06906151930583915</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05942621297855124</v>
+        <v>0.05983537871395653</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.06828248947486866</v>
+        <v>0.0678509368488683</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1693689208565556</v>
+        <v>0.1693432491080404</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.07239951426991381</v>
+        <v>0.07220532629593758</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03776033449589344</v>
+        <v>0.03676555716622928</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0486915620681683</v>
+        <v>0.04673730980952361</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04980607784753934</v>
+        <v>0.04774758912366935</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1023423431246626</v>
+        <v>0.1020365219955583</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04851338009940397</v>
+        <v>0.04820714130687747</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.0700861609721382</v>
+        <v>0.07455546748718846</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0934582579355855</v>
+        <v>0.09317109021253156</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.09198339908040812</v>
+        <v>0.09471163905257123</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.04664369478768617</v>
+        <v>0.04722230724778361</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.06478240465650091</v>
+        <v>0.06585455429687506</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.07646371525686999</v>
+        <v>0.07651151736415877</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1191871816129469</v>
+        <v>0.1157479866307316</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.07223379517732462</v>
+        <v>0.06938752719793584</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.08418706098790395</v>
+        <v>0.0815111629074306</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.08935357385096343</v>
+        <v>0.08824324566530112</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1484582089212635</v>
+        <v>0.1506585321039175</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.08324426511765122</v>
+        <v>0.08251989114846535</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1125694542148773</v>
+        <v>0.1154482272055381</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1314285080313455</v>
+        <v>0.1311560516221914</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1256969026669382</v>
+        <v>0.1269327990201754</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.06967697385551888</v>
+        <v>0.07042787949134025</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.09293983237876227</v>
+        <v>0.09254197536469586</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1035696606382044</v>
+        <v>0.1036755902259559</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.04933756809564291</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.09723153214343004</v>
+        <v>0.09723153214343003</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.09588951205477066</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.05802178607102218</v>
+        <v>0.05908915541102524</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0435098820527838</v>
+        <v>0.04409917184942139</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.04174680470936292</v>
+        <v>0.04186507758721519</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.08702862900726986</v>
+        <v>0.08678672178550764</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.08626816254183399</v>
+        <v>0.08563969490159655</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.06511952507811121</v>
+        <v>0.06465355223801444</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.07061988369797076</v>
+        <v>0.07037897366956115</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1103929114332298</v>
+        <v>0.1106432249438359</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.07494144170394948</v>
+        <v>0.07531357902371294</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.05681103674328739</v>
+        <v>0.05607113253403907</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.05903944033177514</v>
+        <v>0.0588724850318107</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.101173605771423</v>
+        <v>0.1017011589876645</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.07571279204719857</v>
+        <v>0.07613413014860665</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.05954961786880995</v>
+        <v>0.05909200078441039</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.05757502808004282</v>
+        <v>0.05700254670070513</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.109166393051504</v>
+        <v>0.1094681089141488</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.105856501192828</v>
+        <v>0.1062559475636729</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.08275147388935107</v>
+        <v>0.08261728667356021</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.08872308701189194</v>
+        <v>0.08930994241980432</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1297848794768537</v>
+        <v>0.1294605370500311</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.08815567872117933</v>
+        <v>0.08882946057112293</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.06880991841940987</v>
+        <v>0.06862126736390818</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.0715917241276039</v>
+        <v>0.0707184017167687</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1161517756946403</v>
+        <v>0.1160045453312432</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9035</v>
+        <v>9140</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13404</v>
+        <v>14188</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10842</v>
+        <v>11314</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22288</v>
+        <v>22298</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7618</v>
+        <v>7404</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22144</v>
+        <v>21778</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>17331</v>
+        <v>18204</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13116</v>
+        <v>11587</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19984</v>
+        <v>19108</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>39675</v>
+        <v>40118</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>34115</v>
+        <v>33043</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>38383</v>
+        <v>37922</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24628</v>
+        <v>23926</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>31179</v>
+        <v>31569</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29507</v>
+        <v>28996</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>48984</v>
+        <v>49225</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22465</v>
+        <v>22385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>43373</v>
+        <v>44358</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>39406</v>
+        <v>39657</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>28174</v>
+        <v>27567</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>41476</v>
+        <v>39852</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>69796</v>
+        <v>67340</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>61721</v>
+        <v>60822</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>69936</v>
+        <v>71349</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>21970</v>
+        <v>22346</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19983</v>
+        <v>20078</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11382</v>
+        <v>11227</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>48665</v>
+        <v>48910</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>41329</v>
+        <v>40633</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>26533</v>
+        <v>27308</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>27608</v>
+        <v>26814</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>56039</v>
+        <v>55210</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>69299</v>
+        <v>68227</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>50851</v>
+        <v>50338</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>42362</v>
+        <v>42552</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>110957</v>
+        <v>111935</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>46350</v>
+        <v>46055</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>44942</v>
+        <v>44783</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>29778</v>
+        <v>29192</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>87824</v>
+        <v>90719</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>68776</v>
+        <v>68975</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>51660</v>
+        <v>51324</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>51260</v>
+        <v>51659</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>84108</v>
+        <v>82358</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>107876</v>
+        <v>106087</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>86974</v>
+        <v>87297</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>73019</v>
+        <v>73225</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>156685</v>
+        <v>161221</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7281</v>
+        <v>7514</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6955</v>
+        <v>6825</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8245</v>
+        <v>8371</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>19788</v>
+        <v>19822</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>16200</v>
+        <v>15485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18086</v>
+        <v>18033</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8512</v>
+        <v>8274</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27568</v>
+        <v>27625</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>27317</v>
+        <v>28081</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>28124</v>
+        <v>28336</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>19340</v>
+        <v>19581</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>52434</v>
+        <v>51528</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22257</v>
+        <v>23317</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22637</v>
+        <v>22357</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21988</v>
+        <v>23020</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40365</v>
+        <v>41854</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>34210</v>
+        <v>34253</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>37807</v>
+        <v>38831</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22115</v>
+        <v>22072</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>46458</v>
+        <v>47080</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>50792</v>
+        <v>50746</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>52641</v>
+        <v>54268</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>40097</v>
+        <v>39852</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>80839</v>
+        <v>80783</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>21565</v>
+        <v>20010</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9344</v>
+        <v>10252</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11830</v>
+        <v>11574</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9324</v>
+        <v>8657</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>31829</v>
+        <v>31593</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19842</v>
+        <v>20123</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>24249</v>
+        <v>24671</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>15605</v>
+        <v>16004</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>58834</v>
+        <v>58590</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>33590</v>
+        <v>34179</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>40125</v>
+        <v>40996</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>29568</v>
+        <v>29840</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>42742</v>
+        <v>42042</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26369</v>
+        <v>26589</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>30500</v>
+        <v>29460</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>34076</v>
+        <v>36432</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>56924</v>
+        <v>57231</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>41076</v>
+        <v>42471</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>46861</v>
+        <v>47304</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>33760</v>
+        <v>34382</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>92226</v>
+        <v>91774</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>60802</v>
+        <v>59777</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>70581</v>
+        <v>70796</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>61445</v>
+        <v>60041</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10714</v>
+        <v>10973</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9312</v>
+        <v>9931</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6523</v>
+        <v>6181</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13632</v>
+        <v>13428</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>17609</v>
+        <v>17809</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>17381</v>
+        <v>17503</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>12041</v>
+        <v>11889</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>19622</v>
+        <v>20045</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>32313</v>
+        <v>32692</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>31399</v>
+        <v>31082</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>20819</v>
+        <v>20121</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>35983</v>
+        <v>37118</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28347</v>
+        <v>27150</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25216</v>
+        <v>25155</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>20965</v>
+        <v>19090</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>27850</v>
+        <v>28442</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>37231</v>
+        <v>37747</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>36871</v>
+        <v>36998</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>28843</v>
+        <v>27770</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>33666</v>
+        <v>33738</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>59547</v>
+        <v>58724</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>56340</v>
+        <v>56528</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>42157</v>
+        <v>41371</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>57164</v>
+        <v>57019</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>8473</v>
+        <v>8292</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9170</v>
+        <v>9123</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>10383</v>
+        <v>9659</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>28269</v>
+        <v>28140</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>17137</v>
+        <v>16717</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>9601</v>
+        <v>9694</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>12289</v>
+        <v>12088</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>38423</v>
+        <v>39090</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>29409</v>
+        <v>29435</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>21917</v>
+        <v>21756</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>26090</v>
+        <v>26216</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>70971</v>
+        <v>70543</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>23371</v>
+        <v>24742</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>25431</v>
+        <v>26223</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>25228</v>
+        <v>24994</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>48354</v>
+        <v>48906</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>35519</v>
+        <v>36049</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>24958</v>
+        <v>27135</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>30947</v>
+        <v>29641</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>57731</v>
+        <v>57812</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>53426</v>
+        <v>55951</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>44149</v>
+        <v>44984</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>49685</v>
+        <v>50008</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>100135</v>
+        <v>100130</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>17835</v>
+        <v>17076</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>14511</v>
+        <v>14357</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>11637</v>
+        <v>11801</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>69816</v>
+        <v>67458</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>30143</v>
+        <v>29164</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>28383</v>
+        <v>27951</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>40753</v>
+        <v>39864</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>114269</v>
+        <v>115766</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>51887</v>
+        <v>52849</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>49479</v>
+        <v>47863</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>56087</v>
+        <v>57500</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>193429</v>
+        <v>194280</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>38622</v>
+        <v>37349</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>34954</v>
+        <v>34999</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>31082</v>
+        <v>30791</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>108726</v>
+        <v>106230</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>54051</v>
+        <v>54613</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>53728</v>
+        <v>54479</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>69848</v>
+        <v>68945</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>154212</v>
+        <v>154905</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>84845</v>
+        <v>86551</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>80620</v>
+        <v>81175</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>92035</v>
+        <v>91453</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>251856</v>
+        <v>251818</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>53850</v>
+        <v>53706</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>29380</v>
+        <v>28606</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>37910</v>
+        <v>36389</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>39749</v>
+        <v>38106</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>80186</v>
+        <v>79947</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>39906</v>
+        <v>39654</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>57903</v>
+        <v>61595</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>76762</v>
+        <v>76526</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>140487</v>
+        <v>144654</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>74660</v>
+        <v>75587</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>103960</v>
+        <v>105680</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>123827</v>
+        <v>123904</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>88651</v>
+        <v>86093</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>56203</v>
+        <v>53989</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>65547</v>
+        <v>63463</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>71311</v>
+        <v>70424</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>116319</v>
+        <v>118043</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>68475</v>
+        <v>67879</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>93001</v>
+        <v>95380</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>107949</v>
+        <v>107725</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>191978</v>
+        <v>193865</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>111529</v>
+        <v>112731</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>149145</v>
+        <v>148507</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>167723</v>
+        <v>167895</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>190111</v>
+        <v>193608</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>149054</v>
+        <v>151073</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>141703</v>
+        <v>142105</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>306944</v>
+        <v>306091</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>291517</v>
+        <v>289393</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>231632</v>
+        <v>229975</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>250315</v>
+        <v>249461</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>410388</v>
+        <v>411319</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>498791</v>
+        <v>501268</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>396700</v>
+        <v>391533</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>409668</v>
+        <v>408510</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>732948</v>
+        <v>736770</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>248076</v>
+        <v>249457</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>204003</v>
+        <v>202435</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>195430</v>
+        <v>193487</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>385023</v>
+        <v>386087</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>357710</v>
+        <v>359060</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>294350</v>
+        <v>293872</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>314483</v>
+        <v>316563</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>482479</v>
+        <v>481273</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>586741</v>
+        <v>591226</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>480485</v>
+        <v>479168</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>496767</v>
+        <v>490707</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>841457</v>
+        <v>840390</v>
       </c>
     </row>
     <row r="40">
